--- a/excel/oil_202307.xlsx
+++ b/excel/oil_202307.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>07/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>07/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>07/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>07/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>07/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>07/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>07/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>07/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>07/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>07/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>07/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>07/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>07/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>07/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>07/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>07/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>07/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>07/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>07/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>07/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>07/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>07/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>07/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>07/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>07/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>07/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>07/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>07/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>07/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>07/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>07/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,17 +615,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -740,7 +745,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>678</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -775,24 +780,29 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>2252</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -812,7 +822,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -862,7 +872,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -882,7 +892,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1841</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -948,23 +958,23 @@
       <c r="AH3" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>5109</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -984,7 +994,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,974</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1034,7 +1044,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,294</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1054,7 +1064,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,841</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1084,7 +1094,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>678</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1119,523 +1129,12 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>謝勝旭</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Benjamin Hsieh</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1294</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1841</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>5109</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>謝勝旭</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Benjamin Hsieh</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1,974</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1,294</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>1,841</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>5,109</t>
+          <t>1,574</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>7,361</t>
         </is>
       </c>
     </row>
